--- a/awm/doc/log/工作表.xlsx
+++ b/awm/doc/log/工作表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\immortals-s-project\awm\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B62724C-69B5-4CDB-B1A1-98D7DE52074A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B49CF853-AE77-4317-844B-5401CB8CD091}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{BA76447A-8CB9-4A43-8DE5-2FEB1052CB76}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,58 @@
   </si>
   <si>
     <t>集中编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六周6.18-6.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七周6.25-7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八周7.2-7.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组最后总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jenkins和jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行jenkins和jira的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会讨论立项计划书和需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CD719D-BD4D-45A0-A6CD-67660D6517F3}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1729,9 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,7 +1740,9 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -1695,7 +1751,9 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -1704,7 +1762,9 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -1713,7 +1773,9 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1784,9 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,6 +1795,10 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -1740,6 +1808,10 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -1747,6 +1819,10 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -1754,58 +1830,543 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="220">
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A9:B15"/>
-    <mergeCell ref="A2:B8"/>
-    <mergeCell ref="A100:B106"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
+  <mergeCells count="275">
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A114:B120"/>
+    <mergeCell ref="A121:B127"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:B29"/>
+    <mergeCell ref="A37:B43"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A44:B50"/>
+    <mergeCell ref="A51:B57"/>
+    <mergeCell ref="A30:B36"/>
+    <mergeCell ref="A58:B64"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A79:B85"/>
+    <mergeCell ref="A86:B92"/>
+    <mergeCell ref="A93:B99"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A65:B71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
     <mergeCell ref="F98:G98"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -1830,116 +2391,16 @@
     <mergeCell ref="F82:G82"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A9:B15"/>
+    <mergeCell ref="A2:B8"/>
+    <mergeCell ref="A100:B106"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
     <mergeCell ref="C92:E92"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C58:E58"/>
@@ -1954,57 +2415,18 @@
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A79:B85"/>
-    <mergeCell ref="A86:B92"/>
-    <mergeCell ref="A93:B99"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A44:B50"/>
-    <mergeCell ref="A51:B57"/>
-    <mergeCell ref="A30:B36"/>
-    <mergeCell ref="A58:B64"/>
-    <mergeCell ref="A65:B71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:B29"/>
-    <mergeCell ref="A37:B43"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/工作表.xlsx
+++ b/awm/doc/log/工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\immortals-s-project\awm\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B49CF853-AE77-4317-844B-5401CB8CD091}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E04FD6CB-CBC7-4234-9128-59120FEC9624}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{BA76447A-8CB9-4A43-8DE5-2FEB1052CB76}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>添加注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins配置项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CD719D-BD4D-45A0-A6CD-67660D6517F3}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2015,9 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
@@ -2152,6 +2158,257 @@
     </row>
   </sheetData>
   <mergeCells count="275">
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="A2:B8"/>
+    <mergeCell ref="A100:B106"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A86:B92"/>
+    <mergeCell ref="A93:B99"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A65:B71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A30:B36"/>
+    <mergeCell ref="A58:B64"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A79:B85"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A9:B15"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:B29"/>
+    <mergeCell ref="A37:B43"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A44:B50"/>
+    <mergeCell ref="A51:B57"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A114:B120"/>
+    <mergeCell ref="A121:B127"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
     <mergeCell ref="F127:G127"/>
     <mergeCell ref="C109:E109"/>
     <mergeCell ref="C124:E124"/>
@@ -2176,257 +2433,6 @@
     <mergeCell ref="F122:G122"/>
     <mergeCell ref="F123:G123"/>
     <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A114:B120"/>
-    <mergeCell ref="A121:B127"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:B29"/>
-    <mergeCell ref="A37:B43"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A44:B50"/>
-    <mergeCell ref="A51:B57"/>
-    <mergeCell ref="A30:B36"/>
-    <mergeCell ref="A58:B64"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A79:B85"/>
-    <mergeCell ref="A86:B92"/>
-    <mergeCell ref="A93:B99"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A65:B71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A9:B15"/>
-    <mergeCell ref="A2:B8"/>
-    <mergeCell ref="A100:B106"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/工作表.xlsx
+++ b/awm/doc/log/工作表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\immortals-s-project\awm\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E04FD6CB-CBC7-4234-9128-59120FEC9624}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66C3F6C0-6BF1-480A-853A-FAEA577396EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{BA76447A-8CB9-4A43-8DE5-2FEB1052CB76}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>jenkins配置项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次线下开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jira配置项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CD719D-BD4D-45A0-A6CD-67660D6517F3}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="N121" sqref="N121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2040,9 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
@@ -2039,7 +2053,9 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
@@ -2050,7 +2066,9 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
@@ -2061,7 +2079,9 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
@@ -2074,7 +2094,9 @@
         <v>43</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
@@ -2158,16 +2180,247 @@
     </row>
   </sheetData>
   <mergeCells count="275">
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A114:B120"/>
+    <mergeCell ref="A121:B127"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:B29"/>
+    <mergeCell ref="A37:B43"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A44:B50"/>
+    <mergeCell ref="A51:B57"/>
+    <mergeCell ref="A30:B36"/>
+    <mergeCell ref="A58:B64"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A79:B85"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A9:B15"/>
+    <mergeCell ref="A86:B92"/>
+    <mergeCell ref="A93:B99"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A65:B71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
     <mergeCell ref="A2:B8"/>
     <mergeCell ref="A100:B106"/>
     <mergeCell ref="C37:E37"/>
@@ -2192,247 +2445,16 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C101:E101"/>
     <mergeCell ref="C102:E102"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A86:B92"/>
-    <mergeCell ref="A93:B99"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A65:B71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A30:B36"/>
-    <mergeCell ref="A58:B64"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A79:B85"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A9:B15"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:B29"/>
-    <mergeCell ref="A37:B43"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A44:B50"/>
-    <mergeCell ref="A51:B57"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A114:B120"/>
-    <mergeCell ref="A121:B127"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/工作表.xlsx
+++ b/awm/doc/log/工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\immortals-s-project\awm\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66C3F6C0-6BF1-480A-853A-FAEA577396EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F7605AA-9D15-4625-A39D-DB8F0E25ED89}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{BA76447A-8CB9-4A43-8DE5-2FEB1052CB76}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="59">
   <si>
     <t>周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>自主学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人制作模块设计说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CD719D-BD4D-45A0-A6CD-67660D6517F3}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="N121" sqref="N121"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124:E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2111,9 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
@@ -2118,7 +2124,9 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
@@ -2129,7 +2137,9 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
@@ -2180,6 +2190,257 @@
     </row>
   </sheetData>
   <mergeCells count="275">
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="A2:B8"/>
+    <mergeCell ref="A100:B106"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A86:B92"/>
+    <mergeCell ref="A93:B99"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A65:B71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A30:B36"/>
+    <mergeCell ref="A58:B64"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A79:B85"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A9:B15"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:B29"/>
+    <mergeCell ref="A37:B43"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A44:B50"/>
+    <mergeCell ref="A51:B57"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A114:B120"/>
+    <mergeCell ref="A121:B127"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="F127:G127"/>
     <mergeCell ref="C109:E109"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="C125:E125"/>
@@ -2204,257 +2465,6 @@
     <mergeCell ref="F123:G123"/>
     <mergeCell ref="F124:G124"/>
     <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A114:B120"/>
-    <mergeCell ref="A121:B127"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:B29"/>
-    <mergeCell ref="A37:B43"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A44:B50"/>
-    <mergeCell ref="A51:B57"/>
-    <mergeCell ref="A30:B36"/>
-    <mergeCell ref="A58:B64"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A79:B85"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A9:B15"/>
-    <mergeCell ref="A86:B92"/>
-    <mergeCell ref="A93:B99"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A65:B71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="A2:B8"/>
-    <mergeCell ref="A100:B106"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
